--- a/misc/RA Timesheet.xlsx
+++ b/misc/RA Timesheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BobdaGreat\Downloads\Stani Alpha Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BobdaGreat\Downloads\Stani Alpha Model\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86E8FEB-80B7-4045-A2AE-D0A76D11B062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F5EE31-23FE-471A-8218-5E155CC9A633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -446,20 +446,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB26"/>
+  <dimension ref="A1:AF26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4:Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" customWidth="1"/>
-    <col min="2" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -539,7 +539,7 @@
         <v>45334</v>
       </c>
       <c r="U1" s="1">
-        <f t="shared" ref="U1:Y1" si="3">T1+7</f>
+        <f t="shared" ref="U1:AA1" si="3">T1+7</f>
         <v>45341</v>
       </c>
       <c r="V1" s="1">
@@ -558,27 +558,35 @@
         <f t="shared" si="3"/>
         <v>45369</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z1" s="1">
+        <f t="shared" si="3"/>
+        <v>45376</v>
+      </c>
+      <c r="AA1" s="1">
+        <f t="shared" si="3"/>
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AF2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="AB3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AF3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -638,11 +646,18 @@
         <f>2.5+0.5+1+1</f>
         <v>5</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="Y4">
+        <v>8</v>
+      </c>
+      <c r="Z4">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="AF4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -677,11 +692,11 @@
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="AB5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AF5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -727,11 +742,15 @@
         <f>1.5+0.75</f>
         <v>2.25</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="Z6">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="AF6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -777,11 +796,11 @@
       <c r="W7">
         <v>2.5</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AF7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -795,11 +814,11 @@
         <f>3</f>
         <v>3</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AF8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -807,14 +826,14 @@
         <f>3.66+4.32</f>
         <v>7.98</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AF9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -887,7 +906,7 @@
         <v>2</v>
       </c>
       <c r="S11" s="2">
-        <f t="shared" ref="S11:Y11" si="16">SUM(S2:S10)</f>
+        <f t="shared" ref="S11:AA11" si="16">SUM(S2:S10)</f>
         <v>5</v>
       </c>
       <c r="T11" s="2">
@@ -912,33 +931,45 @@
       </c>
       <c r="Y11">
         <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="B14">
         <f>SUM(B11:Y11)</f>
-        <v>182.75</v>
+        <v>190.75</v>
       </c>
       <c r="C14">
         <f>B14*19.61</f>
-        <v>3583.7275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+        <v>3740.6075000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="C15">
         <f>0.8*C14</f>
-        <v>2866.982</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+        <v>2992.4860000000003</v>
+      </c>
+      <c r="E15">
+        <f>B18/B17</f>
+        <v>0.10260115606936417</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -954,7 +985,7 @@
       <c r="A18" s="1"/>
       <c r="B18">
         <f>B14-B17</f>
-        <v>9.75</v>
+        <v>17.75</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">

--- a/misc/RA Timesheet.xlsx
+++ b/misc/RA Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BobdaGreat\Downloads\Stani Alpha Model\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F5EE31-23FE-471A-8218-5E155CC9A633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5B6576-AB11-48EF-9704-A82910BBD6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,7 +449,7 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4:Z10"/>
+      <selection activeCell="F18" sqref="C13:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,8 +650,8 @@
         <v>8</v>
       </c>
       <c r="Z4">
-        <f>1</f>
-        <v>1</v>
+        <f>1+5</f>
+        <v>6</v>
       </c>
       <c r="AF4" t="s">
         <v>6</v>
@@ -935,7 +935,7 @@
       </c>
       <c r="Z11">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AA11">
         <f t="shared" si="16"/>
@@ -950,24 +950,12 @@
         <v>8</v>
       </c>
       <c r="B14">
-        <f>SUM(B11:Y11)</f>
-        <v>190.75</v>
-      </c>
-      <c r="C14">
-        <f>B14*19.61</f>
-        <v>3740.6075000000001</v>
+        <f>SUM(B11:AB11)</f>
+        <v>198.75</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="C15">
-        <f>0.8*C14</f>
-        <v>2992.4860000000003</v>
-      </c>
-      <c r="E15">
-        <f>B18/B17</f>
-        <v>0.10260115606936417</v>
-      </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -985,7 +973,7 @@
       <c r="A18" s="1"/>
       <c r="B18">
         <f>B14-B17</f>
-        <v>17.75</v>
+        <v>25.75</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">

--- a/misc/RA Timesheet.xlsx
+++ b/misc/RA Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BobdaGreat\Downloads\Stani Alpha Model\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5B6576-AB11-48EF-9704-A82910BBD6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA3D52B-C1A5-4012-99FE-877204D0A4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="6480" yWindow="4935" windowWidth="17865" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -448,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="C13:F18"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,8 +650,8 @@
         <v>8</v>
       </c>
       <c r="Z4">
-        <f>1+5</f>
-        <v>6</v>
+        <f>1+6+0.5</f>
+        <v>7.5</v>
       </c>
       <c r="AF4" t="s">
         <v>6</v>
@@ -743,8 +743,8 @@
         <v>2.25</v>
       </c>
       <c r="Z6">
-        <f>2</f>
-        <v>2</v>
+        <f>2+1.5</f>
+        <v>3.5</v>
       </c>
       <c r="AF6" t="s">
         <v>3</v>
@@ -826,6 +826,10 @@
         <f>3.66+4.32</f>
         <v>7.98</v>
       </c>
+      <c r="AA9" s="3">
+        <f>7</f>
+        <v>7</v>
+      </c>
       <c r="AF9" t="s">
         <v>12</v>
       </c>
@@ -921,25 +925,25 @@
         <f>SUM(V2:V8)</f>
         <v>7</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="2">
         <f t="shared" si="16"/>
         <v>9.75</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="2">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="2">
         <f t="shared" si="16"/>
         <v>8</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="2">
         <f t="shared" si="16"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AA11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
@@ -951,7 +955,7 @@
       </c>
       <c r="B14">
         <f>SUM(B11:AB11)</f>
-        <v>198.75</v>
+        <v>208.75</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
@@ -973,7 +977,7 @@
       <c r="A18" s="1"/>
       <c r="B18">
         <f>B14-B17</f>
-        <v>25.75</v>
+        <v>35.75</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">

--- a/misc/RA Timesheet.xlsx
+++ b/misc/RA Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BobdaGreat\Downloads\Stani Alpha Model\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA3D52B-C1A5-4012-99FE-877204D0A4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCD5546-559B-4453-B0B9-20E781FB3CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6480" yWindow="4935" windowWidth="17865" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -448,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +539,7 @@
         <v>45334</v>
       </c>
       <c r="U1" s="1">
-        <f t="shared" ref="U1:AA1" si="3">T1+7</f>
+        <f t="shared" ref="U1:AB1" si="3">T1+7</f>
         <v>45341</v>
       </c>
       <c r="V1" s="1">
@@ -566,6 +566,10 @@
         <f t="shared" si="3"/>
         <v>45383</v>
       </c>
+      <c r="AB1" s="1">
+        <f t="shared" si="3"/>
+        <v>45390</v>
+      </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -653,6 +657,12 @@
         <f>1+6+0.5</f>
         <v>7.5</v>
       </c>
+      <c r="AA4">
+        <v>2</v>
+      </c>
+      <c r="AB4">
+        <v>4</v>
+      </c>
       <c r="AF4" t="s">
         <v>6</v>
       </c>
@@ -942,8 +952,16 @@
         <v>11</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="16"/>
-        <v>7</v>
+        <f>SUM(AA2:AA8)</f>
+        <v>2</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" ref="AB11:AC11" si="17">SUM(AB2:AB8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
@@ -955,7 +973,7 @@
       </c>
       <c r="B14">
         <f>SUM(B11:AB11)</f>
-        <v>208.75</v>
+        <v>207.75</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
@@ -977,7 +995,7 @@
       <c r="A18" s="1"/>
       <c r="B18">
         <f>B14-B17</f>
-        <v>35.75</v>
+        <v>34.75</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">

--- a/misc/RA Timesheet.xlsx
+++ b/misc/RA Timesheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BobdaGreat\Downloads\Stani Alpha Model\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCD5546-559B-4453-B0B9-20E781FB3CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FBFDC0-2B76-42B7-ACF5-73DA44730DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,7 +449,7 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,6 +457,7 @@
     <col min="1" max="1" width="30.42578125" customWidth="1"/>
     <col min="2" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
@@ -539,7 +540,7 @@
         <v>45334</v>
       </c>
       <c r="U1" s="1">
-        <f t="shared" ref="U1:AB1" si="3">T1+7</f>
+        <f t="shared" ref="U1:AC1" si="3">T1+7</f>
         <v>45341</v>
       </c>
       <c r="V1" s="1">
@@ -570,6 +571,10 @@
         <f t="shared" si="3"/>
         <v>45390</v>
       </c>
+      <c r="AC1" s="1">
+        <f t="shared" si="3"/>
+        <v>45397</v>
+      </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -663,6 +668,10 @@
       <c r="AB4">
         <v>4</v>
       </c>
+      <c r="AC4">
+        <f>4.5</f>
+        <v>4.5</v>
+      </c>
       <c r="AF4" t="s">
         <v>6</v>
       </c>
@@ -836,10 +845,7 @@
         <f>3.66+4.32</f>
         <v>7.98</v>
       </c>
-      <c r="AA9" s="3">
-        <f>7</f>
-        <v>7</v>
-      </c>
+      <c r="AA9" s="3"/>
       <c r="AF9" t="s">
         <v>12</v>
       </c>
@@ -920,7 +926,7 @@
         <v>2</v>
       </c>
       <c r="S11" s="2">
-        <f t="shared" ref="S11:AA11" si="16">SUM(S2:S10)</f>
+        <f t="shared" ref="S11:Z11" si="16">SUM(S2:S10)</f>
         <v>5</v>
       </c>
       <c r="T11" s="2">
@@ -961,7 +967,7 @@
       </c>
       <c r="AC11">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">

--- a/misc/RA Timesheet.xlsx
+++ b/misc/RA Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BobdaGreat\Downloads\Stani Alpha Model\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FBFDC0-2B76-42B7-ACF5-73DA44730DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67528BCA-A3DD-435E-92AB-39F2229E0E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,7 +449,7 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,8 +669,8 @@
         <v>4</v>
       </c>
       <c r="AC4">
-        <f>4.5</f>
-        <v>4.5</v>
+        <f>4.5+6</f>
+        <v>10.5</v>
       </c>
       <c r="AF4" t="s">
         <v>6</v>
@@ -815,6 +815,10 @@
       <c r="W7">
         <v>2.5</v>
       </c>
+      <c r="AC7">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
       <c r="AF7" t="s">
         <v>4</v>
       </c>
@@ -967,7 +971,7 @@
       </c>
       <c r="AC11">
         <f t="shared" si="17"/>
-        <v>4.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">

--- a/misc/RA Timesheet.xlsx
+++ b/misc/RA Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BobdaGreat\Downloads\Stani Alpha Model\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67528BCA-A3DD-435E-92AB-39F2229E0E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519A60A8-0BB3-4478-958E-7F6EB773907E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Week</t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>Expenses ($)</t>
+  </si>
+  <si>
+    <t>Meetings/Emails</t>
+  </si>
+  <si>
+    <t>Hours Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5 hours </t>
+  </si>
+  <si>
+    <t>0.25 hours</t>
   </si>
 </sst>
 </file>
@@ -446,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF26"/>
+  <dimension ref="A1:AK26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC16" sqref="A10:AC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,10 +469,12 @@
     <col min="1" max="1" width="30.42578125" customWidth="1"/>
     <col min="2" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="37" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -540,7 +554,7 @@
         <v>45334</v>
       </c>
       <c r="U1" s="1">
-        <f t="shared" ref="U1:AC1" si="3">T1+7</f>
+        <f t="shared" ref="U1:AE1" si="3">T1+7</f>
         <v>45341</v>
       </c>
       <c r="V1" s="1">
@@ -575,8 +589,36 @@
         <f t="shared" si="3"/>
         <v>45397</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AD1" s="1">
+        <f t="shared" si="3"/>
+        <v>45404</v>
+      </c>
+      <c r="AE1" s="1">
+        <f t="shared" si="3"/>
+        <v>45411</v>
+      </c>
+      <c r="AG1" s="1">
+        <f>AE1+7</f>
+        <v>45418</v>
+      </c>
+      <c r="AH1" s="1">
+        <f t="shared" ref="AH1" si="4">AG1+7</f>
+        <v>45425</v>
+      </c>
+      <c r="AI1" s="1">
+        <f t="shared" ref="AI1" si="5">AH1+7</f>
+        <v>45432</v>
+      </c>
+      <c r="AJ1" s="1">
+        <f t="shared" ref="AJ1" si="6">AI1+7</f>
+        <v>45439</v>
+      </c>
+      <c r="AK1" s="1">
+        <f t="shared" ref="AK1" si="7">AJ1+7</f>
+        <v>45446</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -584,7 +626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -595,7 +637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -672,11 +714,18 @@
         <f>4.5+6</f>
         <v>10.5</v>
       </c>
+      <c r="AD4">
+        <f>4.5</f>
+        <v>4.5</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
       <c r="AF4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -715,7 +764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -765,11 +814,18 @@
         <f>2+1.5</f>
         <v>3.5</v>
       </c>
+      <c r="AD6">
+        <f>0.75</f>
+        <v>0.75</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
       <c r="AF6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -823,7 +879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -841,7 +897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -850,14 +906,24 @@
         <v>7.98</v>
       </c>
       <c r="AA9" s="3"/>
+      <c r="AD9" s="3">
+        <f>14</f>
+        <v>14</v>
+      </c>
       <c r="AF9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="V10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,79 +932,79 @@
         <v>4</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" ref="C11:G11" si="4">SUM(C2:C10)</f>
+        <f t="shared" ref="C11:G11" si="8">SUM(C2:C10)</f>
         <v>2</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.5</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" ref="H11" si="5">SUM(H2:H10)</f>
+        <f t="shared" ref="H11" si="9">SUM(H2:H10)</f>
         <v>15</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" ref="I11" si="6">SUM(I2:I10)</f>
+        <f t="shared" ref="I11" si="10">SUM(I2:I10)</f>
         <v>15.5</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" ref="J11" si="7">SUM(J2:J10)</f>
+        <f t="shared" ref="J11" si="11">SUM(J2:J10)</f>
         <v>31.5</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" ref="K11" si="8">SUM(K2:K10)</f>
+        <f t="shared" ref="K11" si="12">SUM(K2:K10)</f>
         <v>17</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" ref="L11" si="9">SUM(L2:L10)</f>
+        <f t="shared" ref="L11" si="13">SUM(L2:L10)</f>
         <v>1</v>
       </c>
       <c r="M11" s="2">
-        <f t="shared" ref="M11" si="10">SUM(M2:M10)</f>
+        <f t="shared" ref="M11" si="14">SUM(M2:M10)</f>
         <v>3.5</v>
       </c>
       <c r="N11" s="2">
-        <f t="shared" ref="N11" si="11">SUM(N2:N10)</f>
+        <f t="shared" ref="N11" si="15">SUM(N2:N10)</f>
         <v>5.5</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" ref="O11" si="12">SUM(O2:O10)</f>
+        <f t="shared" ref="O11" si="16">SUM(O2:O10)</f>
         <v>4</v>
       </c>
       <c r="P11" s="2">
-        <f t="shared" ref="P11" si="13">SUM(P2:P10)</f>
+        <f t="shared" ref="P11" si="17">SUM(P2:P10)</f>
         <v>11</v>
       </c>
       <c r="Q11" s="2">
-        <f t="shared" ref="Q11" si="14">SUM(Q2:Q10)</f>
+        <f t="shared" ref="Q11" si="18">SUM(Q2:Q10)</f>
         <v>11</v>
       </c>
       <c r="R11" s="2">
-        <f t="shared" ref="R11" si="15">SUM(R2:R10)</f>
+        <f t="shared" ref="R11" si="19">SUM(R2:R10)</f>
         <v>2</v>
       </c>
       <c r="S11" s="2">
-        <f t="shared" ref="S11:Z11" si="16">SUM(S2:S10)</f>
+        <f t="shared" ref="S11:Z11" si="20">SUM(S2:S10)</f>
         <v>5</v>
       </c>
       <c r="T11" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.5</v>
       </c>
       <c r="U11" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>9</v>
       </c>
       <c r="V11" s="2">
@@ -946,50 +1012,58 @@
         <v>7</v>
       </c>
       <c r="W11" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>9.75</v>
       </c>
       <c r="X11" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y11" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>8</v>
       </c>
       <c r="Z11" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>11</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" s="2">
         <f>SUM(AA2:AA8)</f>
         <v>2</v>
       </c>
-      <c r="AB11">
-        <f t="shared" ref="AB11:AC11" si="17">SUM(AB2:AB8)</f>
+      <c r="AB11" s="2">
+        <f t="shared" ref="AB11:AE11" si="21">SUM(AB2:AB8)</f>
         <v>4</v>
       </c>
-      <c r="AC11">
-        <f t="shared" si="17"/>
+      <c r="AC11" s="2">
+        <f t="shared" si="21"/>
         <v>12.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AD11" s="2">
+        <f>SUM(AD2:AD8)</f>
+        <v>5.25</v>
+      </c>
+      <c r="AE11" s="2">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="B14">
-        <f>SUM(B11:AB11)</f>
-        <v>207.75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+        <f>SUM(11:11)</f>
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -997,15 +1071,17 @@
         <v>10</v>
       </c>
       <c r="B17">
-        <f>6+140+27</f>
-        <v>173</v>
+        <f>SUM(B11:Z11)</f>
+        <v>201.75</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B18">
         <f>B14-B17</f>
-        <v>34.75</v>
+        <v>25.75</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">

--- a/misc/RA Timesheet.xlsx
+++ b/misc/RA Timesheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BobdaGreat\Downloads\Stani Alpha Model\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519A60A8-0BB3-4478-958E-7F6EB773907E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B00939-A9E4-48B2-86C1-A8635CBD44E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,11 +138,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -460,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC16" sqref="A10:AC16"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AH20" sqref="AH20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,10 +614,7 @@
         <f t="shared" ref="AJ1" si="6">AI1+7</f>
         <v>45439</v>
       </c>
-      <c r="AK1" s="1">
-        <f t="shared" ref="AK1" si="7">AJ1+7</f>
-        <v>45446</v>
-      </c>
+      <c r="AK1" s="1"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -722,6 +720,10 @@
         <v>1</v>
       </c>
       <c r="AF4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG4">
+        <f>2+4</f>
         <v>6</v>
       </c>
     </row>
@@ -932,79 +934,79 @@
         <v>4</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" ref="C11:G11" si="8">SUM(C2:C10)</f>
+        <f t="shared" ref="C11:G11" si="7">SUM(C2:C10)</f>
         <v>2</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>6.5</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" ref="H11" si="9">SUM(H2:H10)</f>
+        <f t="shared" ref="H11" si="8">SUM(H2:H10)</f>
         <v>15</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" ref="I11" si="10">SUM(I2:I10)</f>
+        <f t="shared" ref="I11" si="9">SUM(I2:I10)</f>
         <v>15.5</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" ref="J11" si="11">SUM(J2:J10)</f>
+        <f t="shared" ref="J11" si="10">SUM(J2:J10)</f>
         <v>31.5</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" ref="K11" si="12">SUM(K2:K10)</f>
+        <f t="shared" ref="K11" si="11">SUM(K2:K10)</f>
         <v>17</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" ref="L11" si="13">SUM(L2:L10)</f>
+        <f t="shared" ref="L11" si="12">SUM(L2:L10)</f>
         <v>1</v>
       </c>
       <c r="M11" s="2">
-        <f t="shared" ref="M11" si="14">SUM(M2:M10)</f>
+        <f t="shared" ref="M11" si="13">SUM(M2:M10)</f>
         <v>3.5</v>
       </c>
       <c r="N11" s="2">
-        <f t="shared" ref="N11" si="15">SUM(N2:N10)</f>
+        <f t="shared" ref="N11" si="14">SUM(N2:N10)</f>
         <v>5.5</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" ref="O11" si="16">SUM(O2:O10)</f>
+        <f t="shared" ref="O11" si="15">SUM(O2:O10)</f>
         <v>4</v>
       </c>
       <c r="P11" s="2">
-        <f t="shared" ref="P11" si="17">SUM(P2:P10)</f>
+        <f t="shared" ref="P11" si="16">SUM(P2:P10)</f>
         <v>11</v>
       </c>
       <c r="Q11" s="2">
-        <f t="shared" ref="Q11" si="18">SUM(Q2:Q10)</f>
+        <f t="shared" ref="Q11" si="17">SUM(Q2:Q10)</f>
         <v>11</v>
       </c>
       <c r="R11" s="2">
-        <f t="shared" ref="R11" si="19">SUM(R2:R10)</f>
+        <f t="shared" ref="R11" si="18">SUM(R2:R10)</f>
         <v>2</v>
       </c>
       <c r="S11" s="2">
-        <f t="shared" ref="S11:Z11" si="20">SUM(S2:S10)</f>
+        <f t="shared" ref="S11:Z11" si="19">SUM(S2:S10)</f>
         <v>5</v>
       </c>
       <c r="T11" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>10.5</v>
       </c>
       <c r="U11" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
       <c r="V11" s="2">
@@ -1012,19 +1014,19 @@
         <v>7</v>
       </c>
       <c r="W11" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>9.75</v>
       </c>
       <c r="X11" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Y11" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="Z11" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>11</v>
       </c>
       <c r="AA11" s="2">
@@ -1032,11 +1034,11 @@
         <v>2</v>
       </c>
       <c r="AB11" s="2">
-        <f t="shared" ref="AB11:AE11" si="21">SUM(AB2:AB8)</f>
+        <f t="shared" ref="AB11:AG11" si="20">SUM(AB2:AB8)</f>
         <v>4</v>
       </c>
       <c r="AC11" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>12.5</v>
       </c>
       <c r="AD11" s="2">
@@ -1044,8 +1046,24 @@
         <v>5.25</v>
       </c>
       <c r="AE11" s="2">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="AG11" s="4">
+        <f>SUM(AG2:AG8)</f>
+        <v>6</v>
+      </c>
+      <c r="AH11" s="4">
+        <f t="shared" ref="AH11:AJ11" si="21">SUM(AH2:AH8)</f>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="4">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="4">
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
@@ -1057,7 +1075,7 @@
       </c>
       <c r="B14">
         <f>SUM(11:11)</f>
-        <v>227.5</v>
+        <v>233.5</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
@@ -1081,7 +1099,7 @@
       </c>
       <c r="B18">
         <f>B14-B17</f>
-        <v>25.75</v>
+        <v>31.75</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">

--- a/misc/RA Timesheet.xlsx
+++ b/misc/RA Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BobdaGreat\Downloads\Stani Alpha Model\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B00939-A9E4-48B2-86C1-A8635CBD44E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65167D73-C7C9-42C6-93B9-21B7D9E3DBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Week</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>0.25 hours</t>
+  </si>
+  <si>
+    <t>ESG project</t>
   </si>
 </sst>
 </file>
@@ -138,12 +141,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -462,7 +464,7 @@
   <dimension ref="A1:AK26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AH20" sqref="AH20"/>
+      <selection activeCell="AJ15" sqref="AJ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,6 +728,14 @@
         <f>2+4</f>
         <v>6</v>
       </c>
+      <c r="AH4">
+        <f>4</f>
+        <v>4</v>
+      </c>
+      <c r="AI4">
+        <f>4</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -826,6 +836,12 @@
       <c r="AF6" t="s">
         <v>13</v>
       </c>
+      <c r="AH6">
+        <v>2</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -879,6 +895,10 @@
       </c>
       <c r="AF7" t="s">
         <v>4</v>
+      </c>
+      <c r="AH7">
+        <f>1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
@@ -924,6 +944,13 @@
       <c r="AD10" t="s">
         <v>15</v>
       </c>
+      <c r="AF10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI10">
+        <f>1.5+0.66</f>
+        <v>2.16</v>
+      </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1034,7 +1061,7 @@
         <v>2</v>
       </c>
       <c r="AB11" s="2">
-        <f t="shared" ref="AB11:AG11" si="20">SUM(AB2:AB8)</f>
+        <f t="shared" ref="AB11:AE11" si="20">SUM(AB2:AB8)</f>
         <v>4</v>
       </c>
       <c r="AC11" s="2">
@@ -1049,19 +1076,19 @@
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="AG11" s="4">
+      <c r="AG11">
         <f>SUM(AG2:AG8)</f>
         <v>6</v>
       </c>
-      <c r="AH11" s="4">
+      <c r="AH11">
         <f t="shared" ref="AH11:AJ11" si="21">SUM(AH2:AH8)</f>
-        <v>0</v>
-      </c>
-      <c r="AI11" s="4">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="4">
+        <v>7</v>
+      </c>
+      <c r="AI11">
+        <f>SUM(AI2:AI10)</f>
+        <v>7.16</v>
+      </c>
+      <c r="AJ11">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
@@ -1075,7 +1102,7 @@
       </c>
       <c r="B14">
         <f>SUM(11:11)</f>
-        <v>233.5</v>
+        <v>247.66</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
@@ -1099,7 +1126,7 @@
       </c>
       <c r="B18">
         <f>B14-B17</f>
-        <v>31.75</v>
+        <v>45.91</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">

--- a/misc/RA Timesheet.xlsx
+++ b/misc/RA Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BobdaGreat\Downloads\Stani Alpha Model\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65167D73-C7C9-42C6-93B9-21B7D9E3DBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA77A9A7-A6E1-485E-B153-A6BF35E8F318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:AK26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AJ15" sqref="AJ15"/>
+      <selection activeCell="AI4" sqref="AI4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,8 +733,8 @@
         <v>4</v>
       </c>
       <c r="AI4">
-        <f>4</f>
-        <v>4</v>
+        <f>4+2+3</f>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
@@ -948,8 +948,8 @@
         <v>17</v>
       </c>
       <c r="AI10">
-        <f>1.5+0.66</f>
-        <v>2.16</v>
+        <f>1.5+0.66+1+1</f>
+        <v>4.16</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="AI11">
         <f>SUM(AI2:AI10)</f>
-        <v>7.16</v>
+        <v>14.16</v>
       </c>
       <c r="AJ11">
         <f t="shared" si="21"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="B14">
         <f>SUM(11:11)</f>
-        <v>247.66</v>
+        <v>254.66</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="B18">
         <f>B14-B17</f>
-        <v>45.91</v>
+        <v>52.91</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">

--- a/misc/RA Timesheet.xlsx
+++ b/misc/RA Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BobdaGreat\Downloads\Stani Alpha Model\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA77A9A7-A6E1-485E-B153-A6BF35E8F318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFC0224-0A4B-4109-B3D2-956B65C48043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:AK26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AI4" sqref="AI4"/>
+      <selection activeCell="AM9" sqref="AM9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,8 +733,8 @@
         <v>4</v>
       </c>
       <c r="AI4">
-        <f>4+2+3</f>
-        <v>9</v>
+        <f>4+2+3+2</f>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="AI11">
         <f>SUM(AI2:AI10)</f>
-        <v>14.16</v>
+        <v>16.16</v>
       </c>
       <c r="AJ11">
         <f t="shared" si="21"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="B14">
         <f>SUM(11:11)</f>
-        <v>254.66</v>
+        <v>256.66000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="B18">
         <f>B14-B17</f>
-        <v>52.91</v>
+        <v>54.910000000000025</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">

--- a/misc/RA Timesheet.xlsx
+++ b/misc/RA Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BobdaGreat\Downloads\Stani Alpha Model\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFC0224-0A4B-4109-B3D2-956B65C48043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F8FBAE-A4FB-4D3F-A36B-2C49A0729FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:AK26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AM9" sqref="AM9"/>
+      <selection activeCell="AJ11" sqref="AI11:AJ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,6 +736,10 @@
         <f>4+2+3+2</f>
         <v>11</v>
       </c>
+      <c r="AJ4">
+        <f>4+4</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -948,8 +952,8 @@
         <v>17</v>
       </c>
       <c r="AI10">
-        <f>1.5+0.66+1+1</f>
-        <v>4.16</v>
+        <f>1.5+0.66+1+1+2</f>
+        <v>6.16</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
@@ -1076,21 +1080,21 @@
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" s="2">
         <f>SUM(AG2:AG8)</f>
         <v>6</v>
       </c>
-      <c r="AH11">
+      <c r="AH11" s="2">
         <f t="shared" ref="AH11:AJ11" si="21">SUM(AH2:AH8)</f>
         <v>7</v>
       </c>
-      <c r="AI11">
+      <c r="AI11" s="2">
         <f>SUM(AI2:AI10)</f>
-        <v>16.16</v>
-      </c>
-      <c r="AJ11">
+        <v>18.16</v>
+      </c>
+      <c r="AJ11" s="2">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
@@ -1102,7 +1106,7 @@
       </c>
       <c r="B14">
         <f>SUM(11:11)</f>
-        <v>256.66000000000003</v>
+        <v>266.66000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
@@ -1126,7 +1130,7 @@
       </c>
       <c r="B18">
         <f>B14-B17</f>
-        <v>54.910000000000025</v>
+        <v>64.910000000000025</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">

--- a/misc/RA Timesheet.xlsx
+++ b/misc/RA Timesheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BobdaGreat\Downloads\Stani Alpha Model\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F8FBAE-A4FB-4D3F-A36B-2C49A0729FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608666AC-5F0E-4BE5-98D5-4E11A08AAF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Week</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>ESG project</t>
+  </si>
+  <si>
+    <t>$7/0.2 hours</t>
   </si>
 </sst>
 </file>
@@ -463,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AJ11" sqref="AI11:AJ11"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AK11" sqref="AK11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,10 +616,13 @@
         <v>45432</v>
       </c>
       <c r="AJ1" s="1">
-        <f t="shared" ref="AJ1" si="6">AI1+7</f>
+        <f t="shared" ref="AJ1:AK1" si="6">AI1+7</f>
         <v>45439</v>
       </c>
-      <c r="AK1" s="1"/>
+      <c r="AK1" s="1">
+        <f t="shared" si="6"/>
+        <v>45446</v>
+      </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -740,6 +746,10 @@
         <f>4+4</f>
         <v>8</v>
       </c>
+      <c r="AK4">
+        <f>2+2+0.5</f>
+        <v>4.5</v>
+      </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -845,6 +855,10 @@
       </c>
       <c r="AI6">
         <v>1</v>
+      </c>
+      <c r="AK6">
+        <f>1.5+1</f>
+        <v>2.5</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
@@ -939,6 +953,9 @@
       <c r="AF9" t="s">
         <v>12</v>
       </c>
+      <c r="AK9" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -955,6 +972,10 @@
         <f>1.5+0.66+1+1+2</f>
         <v>6.16</v>
       </c>
+      <c r="AK10">
+        <f>1+0.3</f>
+        <v>1.3</v>
+      </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1096,6 +1117,10 @@
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
+      <c r="AK11">
+        <f>SUM(AK2:AK8)+0.2+AK10</f>
+        <v>8.5</v>
+      </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -1106,7 +1131,7 @@
       </c>
       <c r="B14">
         <f>SUM(11:11)</f>
-        <v>266.66000000000003</v>
+        <v>275.16000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
@@ -1120,8 +1145,8 @@
         <v>10</v>
       </c>
       <c r="B17">
-        <f>SUM(B11:Z11)</f>
-        <v>201.75</v>
+        <f>SUM(B11:AJ11)</f>
+        <v>266.66000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1130,7 +1155,7 @@
       </c>
       <c r="B18">
         <f>B14-B17</f>
-        <v>64.910000000000025</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">

--- a/misc/RA Timesheet.xlsx
+++ b/misc/RA Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BobdaGreat\Downloads\Stani Alpha Model\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608666AC-5F0E-4BE5-98D5-4E11A08AAF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCA0F6A-BD1A-4B74-8FBD-F1EC52B370E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,11 +144,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -464,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK26"/>
+  <dimension ref="A1:AN26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AK11" sqref="AK11"/>
+      <selection activeCell="AK16" sqref="AK16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,10 +478,10 @@
     <col min="28" max="28" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="29" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="37" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="38" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -616,15 +617,19 @@
         <v>45432</v>
       </c>
       <c r="AJ1" s="1">
-        <f t="shared" ref="AJ1:AK1" si="6">AI1+7</f>
+        <f t="shared" ref="AJ1:AL1" si="6">AI1+7</f>
         <v>45439</v>
       </c>
       <c r="AK1" s="1">
         <f t="shared" si="6"/>
         <v>45446</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL1" s="1">
+        <f t="shared" si="6"/>
+        <v>45453</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -632,7 +637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -643,7 +648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -750,8 +755,12 @@
         <f>2+2+0.5</f>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL4">
+        <f>2+0.5</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -790,7 +799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -860,8 +869,12 @@
         <f>1.5+1</f>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL6">
+        <f>3.5</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -919,7 +932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -937,7 +950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -957,7 +970,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="V10" t="s">
         <v>16</v>
@@ -977,7 +990,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1121,23 +1134,46 @@
         <f>SUM(AK2:AK8)+0.2+AK10</f>
         <v>8.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL11" s="4">
+        <f>SUM(AL2:AL10)</f>
+        <v>6</v>
+      </c>
+      <c r="AM11" s="4">
+        <f>SUM(AM2:AM10)</f>
+        <v>0</v>
+      </c>
+      <c r="AN11" s="4">
+        <f>SUM(AN2:AN10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="B14">
         <f>SUM(11:11)</f>
-        <v>275.16000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+        <v>281.16000000000003</v>
+      </c>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1155,7 +1191,7 @@
       </c>
       <c r="B18">
         <f>B14-B17</f>
-        <v>8.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">

--- a/misc/RA Timesheet.xlsx
+++ b/misc/RA Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BobdaGreat\Downloads\Stani Alpha Model\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCA0F6A-BD1A-4B74-8FBD-F1EC52B370E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD99895D-AA06-4A25-8290-D6EBEEF284BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -144,12 +145,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -468,7 +468,7 @@
   <dimension ref="A1:AN26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AK16" sqref="AK16"/>
+      <selection activeCell="AN16" sqref="AN16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,8 +756,8 @@
         <v>4.5</v>
       </c>
       <c r="AL4">
-        <f>2+0.5</f>
-        <v>2.5</v>
+        <f>2+0.5+4+3.5</f>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
@@ -1134,29 +1134,21 @@
         <f>SUM(AK2:AK8)+0.2+AK10</f>
         <v>8.5</v>
       </c>
-      <c r="AL11" s="4">
+      <c r="AL11">
         <f>SUM(AL2:AL10)</f>
-        <v>6</v>
-      </c>
-      <c r="AM11" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="AM11">
         <f>SUM(AM2:AM10)</f>
         <v>0</v>
       </c>
-      <c r="AN11" s="4">
+      <c r="AN11">
         <f>SUM(AN2:AN10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="AL12" s="4"/>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="4"/>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="AL13" s="4"/>
-      <c r="AM13" s="4"/>
-      <c r="AN13" s="4"/>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1164,11 +1156,8 @@
       </c>
       <c r="B14">
         <f>SUM(11:11)</f>
-        <v>281.16000000000003</v>
-      </c>
-      <c r="AL14" s="4"/>
-      <c r="AM14" s="4"/>
-      <c r="AN14" s="4"/>
+        <v>288.66000000000003</v>
+      </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -1191,7 +1180,7 @@
       </c>
       <c r="B18">
         <f>B14-B17</f>
-        <v>14.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">

--- a/misc/RA Timesheet.xlsx
+++ b/misc/RA Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BobdaGreat\Downloads\Stani Alpha Model\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD99895D-AA06-4A25-8290-D6EBEEF284BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C278A04-3B1B-4568-A3FB-EFFC35590474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -468,7 +467,7 @@
   <dimension ref="A1:AN26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AN16" sqref="AN16"/>
+      <selection activeCell="AL18" sqref="AL18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +477,7 @@
     <col min="28" max="28" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="29" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="38" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="39" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
@@ -617,7 +616,7 @@
         <v>45432</v>
       </c>
       <c r="AJ1" s="1">
-        <f t="shared" ref="AJ1:AL1" si="6">AI1+7</f>
+        <f t="shared" ref="AJ1:AM1" si="6">AI1+7</f>
         <v>45439</v>
       </c>
       <c r="AK1" s="1">
@@ -628,6 +627,10 @@
         <f t="shared" si="6"/>
         <v>45453</v>
       </c>
+      <c r="AM1" s="1">
+        <f t="shared" si="6"/>
+        <v>45460</v>
+      </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -759,6 +762,10 @@
         <f>2+0.5+4+3.5</f>
         <v>10</v>
       </c>
+      <c r="AM4">
+        <f>2.5+4+5</f>
+        <v>11.5</v>
+      </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -872,6 +879,10 @@
       <c r="AL6">
         <f>3.5</f>
         <v>3.5</v>
+      </c>
+      <c r="AM6">
+        <f>1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
@@ -1140,7 +1151,7 @@
       </c>
       <c r="AM11">
         <f>SUM(AM2:AM10)</f>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AN11">
         <f>SUM(AN2:AN10)</f>
@@ -1156,7 +1167,7 @@
       </c>
       <c r="B14">
         <f>SUM(11:11)</f>
-        <v>288.66000000000003</v>
+        <v>301.16000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
@@ -1180,7 +1191,7 @@
       </c>
       <c r="B18">
         <f>B14-B17</f>
-        <v>22</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">

--- a/misc/RA Timesheet.xlsx
+++ b/misc/RA Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BobdaGreat\Downloads\Stani Alpha Model\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C278A04-3B1B-4568-A3FB-EFFC35590474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63A67BB-A0DA-4931-A9EA-34D5E22ADA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -467,7 +467,7 @@
   <dimension ref="A1:AN26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AL18" sqref="AL18"/>
+      <selection activeCell="AM4" sqref="AM4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,8 +763,8 @@
         <v>10</v>
       </c>
       <c r="AM4">
-        <f>2.5+4+5</f>
-        <v>11.5</v>
+        <f>2.5+4+5+2</f>
+        <v>13.5</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="AM11">
         <f>SUM(AM2:AM10)</f>
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AN11">
         <f>SUM(AN2:AN10)</f>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="B14">
         <f>SUM(11:11)</f>
-        <v>301.16000000000003</v>
+        <v>303.16000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="B18">
         <f>B14-B17</f>
-        <v>34.5</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">

--- a/misc/RA Timesheet.xlsx
+++ b/misc/RA Timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BobdaGreat\Downloads\Stani Alpha Model\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63A67BB-A0DA-4931-A9EA-34D5E22ADA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B3651E-EB98-4009-BD15-BFA394BDE766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>Week</t>
   </si>
@@ -464,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN26"/>
+  <dimension ref="A1:AR26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AM4" sqref="AM4"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AO11" sqref="AO11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,10 +477,11 @@
     <col min="28" max="28" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="29" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="39" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="43" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -631,16 +632,35 @@
         <f t="shared" si="6"/>
         <v>45460</v>
       </c>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AN1" s="1">
+        <f t="shared" ref="AN1" si="7">AM1+7</f>
+        <v>45467</v>
+      </c>
+      <c r="AO1" s="1">
+        <f t="shared" ref="AO1" si="8">AN1+7</f>
+        <v>45474</v>
+      </c>
+      <c r="AP1" s="1">
+        <f t="shared" ref="AP1" si="9">AO1+7</f>
+        <v>45481</v>
+      </c>
+      <c r="AQ1" s="1">
+        <f t="shared" ref="AQ1" si="10">AP1+7</f>
+        <v>45488</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="AF2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AR2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -650,8 +670,11 @@
       <c r="AF3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AR3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -763,11 +786,17 @@
         <v>10</v>
       </c>
       <c r="AM4">
-        <f>2.5+4+5+2</f>
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+        <f>2.5+4+5+2+1.5</f>
+        <v>15</v>
+      </c>
+      <c r="AO4">
+        <v>1</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -805,8 +834,11 @@
       <c r="AF5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AR5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -884,8 +916,14 @@
         <f>1</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO6">
+        <v>1</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -942,8 +980,11 @@
         <f>1</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AR7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -960,8 +1001,11 @@
       <c r="AF8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AR8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1024,14 @@
       <c r="AK9" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="V10" t="s">
         <v>16</v>
@@ -1000,8 +1050,14 @@
         <f>1+0.3</f>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO10">
+        <v>1.5</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1010,79 +1066,79 @@
         <v>4</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" ref="C11:G11" si="7">SUM(C2:C10)</f>
+        <f t="shared" ref="C11:G11" si="11">SUM(C2:C10)</f>
         <v>2</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6.5</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" ref="H11" si="8">SUM(H2:H10)</f>
+        <f t="shared" ref="H11" si="12">SUM(H2:H10)</f>
         <v>15</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" ref="I11" si="9">SUM(I2:I10)</f>
+        <f t="shared" ref="I11" si="13">SUM(I2:I10)</f>
         <v>15.5</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" ref="J11" si="10">SUM(J2:J10)</f>
+        <f t="shared" ref="J11" si="14">SUM(J2:J10)</f>
         <v>31.5</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" ref="K11" si="11">SUM(K2:K10)</f>
+        <f t="shared" ref="K11" si="15">SUM(K2:K10)</f>
         <v>17</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" ref="L11" si="12">SUM(L2:L10)</f>
+        <f t="shared" ref="L11" si="16">SUM(L2:L10)</f>
         <v>1</v>
       </c>
       <c r="M11" s="2">
-        <f t="shared" ref="M11" si="13">SUM(M2:M10)</f>
+        <f t="shared" ref="M11" si="17">SUM(M2:M10)</f>
         <v>3.5</v>
       </c>
       <c r="N11" s="2">
-        <f t="shared" ref="N11" si="14">SUM(N2:N10)</f>
+        <f t="shared" ref="N11" si="18">SUM(N2:N10)</f>
         <v>5.5</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" ref="O11" si="15">SUM(O2:O10)</f>
+        <f t="shared" ref="O11" si="19">SUM(O2:O10)</f>
         <v>4</v>
       </c>
       <c r="P11" s="2">
-        <f t="shared" ref="P11" si="16">SUM(P2:P10)</f>
+        <f t="shared" ref="P11" si="20">SUM(P2:P10)</f>
         <v>11</v>
       </c>
       <c r="Q11" s="2">
-        <f t="shared" ref="Q11" si="17">SUM(Q2:Q10)</f>
+        <f t="shared" ref="Q11" si="21">SUM(Q2:Q10)</f>
         <v>11</v>
       </c>
       <c r="R11" s="2">
-        <f t="shared" ref="R11" si="18">SUM(R2:R10)</f>
+        <f t="shared" ref="R11" si="22">SUM(R2:R10)</f>
         <v>2</v>
       </c>
       <c r="S11" s="2">
-        <f t="shared" ref="S11:Z11" si="19">SUM(S2:S10)</f>
+        <f t="shared" ref="S11:Z11" si="23">SUM(S2:S10)</f>
         <v>5</v>
       </c>
       <c r="T11" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>10.5</v>
       </c>
       <c r="U11" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>9</v>
       </c>
       <c r="V11" s="2">
@@ -1090,19 +1146,19 @@
         <v>7</v>
       </c>
       <c r="W11" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>9.75</v>
       </c>
       <c r="X11" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Y11" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="Z11" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>11</v>
       </c>
       <c r="AA11" s="2">
@@ -1110,11 +1166,11 @@
         <v>2</v>
       </c>
       <c r="AB11" s="2">
-        <f t="shared" ref="AB11:AE11" si="20">SUM(AB2:AB8)</f>
+        <f t="shared" ref="AB11:AE11" si="24">SUM(AB2:AB8)</f>
         <v>4</v>
       </c>
       <c r="AC11" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>12.5</v>
       </c>
       <c r="AD11" s="2">
@@ -1122,7 +1178,7 @@
         <v>5.25</v>
       </c>
       <c r="AE11" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="AG11" s="2">
@@ -1130,7 +1186,7 @@
         <v>6</v>
       </c>
       <c r="AH11" s="2">
-        <f t="shared" ref="AH11:AJ11" si="21">SUM(AH2:AH8)</f>
+        <f t="shared" ref="AH11:AJ11" si="25">SUM(AH2:AH8)</f>
         <v>7</v>
       </c>
       <c r="AI11" s="2">
@@ -1138,42 +1194,50 @@
         <v>18.16</v>
       </c>
       <c r="AJ11" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>8</v>
       </c>
-      <c r="AK11">
+      <c r="AK11" s="2">
         <f>SUM(AK2:AK8)+0.2+AK10</f>
         <v>8.5</v>
       </c>
-      <c r="AL11">
+      <c r="AL11" s="2">
         <f>SUM(AL2:AL10)</f>
         <v>13.5</v>
       </c>
-      <c r="AM11">
+      <c r="AM11" s="2">
         <f>SUM(AM2:AM10)</f>
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AN11">
         <f>SUM(AN2:AN10)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO11">
+        <f>SUM(AO2:AO10)+0.2</f>
+        <v>3.7</v>
+      </c>
+      <c r="AP11">
+        <f t="shared" ref="AP11" si="26">SUM(AP2:AP10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="B14">
         <f>SUM(11:11)</f>
-        <v>303.16000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+        <v>308.36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1191,7 +1255,7 @@
       </c>
       <c r="B18">
         <f>B14-B17</f>
-        <v>36.5</v>
+        <v>41.699999999999989</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">

--- a/misc/RA Timesheet.xlsx
+++ b/misc/RA Timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BobdaGreat\Downloads\Stani Alpha Model\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B3651E-EB98-4009-BD15-BFA394BDE766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF52D02D-B382-4BBC-A84B-B904D16CBB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>Week</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>$7/0.2 hours</t>
+  </si>
+  <si>
+    <t>And after</t>
   </si>
 </sst>
 </file>
@@ -464,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR26"/>
+  <dimension ref="A1:AS26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AO11" sqref="AO11"/>
+      <selection activeCell="AR7" sqref="AR7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,10 +481,10 @@
     <col min="29" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="33" max="43" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -645,22 +648,25 @@
         <v>45481</v>
       </c>
       <c r="AQ1" s="1">
-        <f t="shared" ref="AQ1" si="10">AP1+7</f>
+        <f>AP1+7</f>
         <v>45488</v>
       </c>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AR1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="AF2" t="s">
         <v>5</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -670,11 +676,11 @@
       <c r="AF3" t="s">
         <v>1</v>
       </c>
-      <c r="AR3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -792,11 +798,18 @@
       <c r="AO4">
         <v>1</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AP4">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AS4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -834,11 +847,11 @@
       <c r="AF5" t="s">
         <v>2</v>
       </c>
-      <c r="AR5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -919,11 +932,14 @@
       <c r="AO6">
         <v>1</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="AR6">
+        <v>1</v>
+      </c>
+      <c r="AS6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -980,11 +996,11 @@
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="AR7" t="s">
+      <c r="AS7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1001,11 +1017,11 @@
       <c r="AF8" t="s">
         <v>9</v>
       </c>
-      <c r="AR8" t="s">
+      <c r="AS8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1027,11 +1043,14 @@
       <c r="AO9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AR9" t="s">
+      <c r="AR9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="V10" t="s">
         <v>16</v>
@@ -1053,11 +1072,11 @@
       <c r="AO10">
         <v>1.5</v>
       </c>
-      <c r="AR10" t="s">
+      <c r="AS10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1066,79 +1085,79 @@
         <v>4</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" ref="C11:G11" si="11">SUM(C2:C10)</f>
+        <f t="shared" ref="C11:G11" si="10">SUM(C2:C10)</f>
         <v>2</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>6.5</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" ref="H11" si="12">SUM(H2:H10)</f>
+        <f t="shared" ref="H11" si="11">SUM(H2:H10)</f>
         <v>15</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" ref="I11" si="13">SUM(I2:I10)</f>
+        <f t="shared" ref="I11" si="12">SUM(I2:I10)</f>
         <v>15.5</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" ref="J11" si="14">SUM(J2:J10)</f>
+        <f t="shared" ref="J11" si="13">SUM(J2:J10)</f>
         <v>31.5</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" ref="K11" si="15">SUM(K2:K10)</f>
+        <f t="shared" ref="K11" si="14">SUM(K2:K10)</f>
         <v>17</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" ref="L11" si="16">SUM(L2:L10)</f>
+        <f t="shared" ref="L11" si="15">SUM(L2:L10)</f>
         <v>1</v>
       </c>
       <c r="M11" s="2">
-        <f t="shared" ref="M11" si="17">SUM(M2:M10)</f>
+        <f t="shared" ref="M11" si="16">SUM(M2:M10)</f>
         <v>3.5</v>
       </c>
       <c r="N11" s="2">
-        <f t="shared" ref="N11" si="18">SUM(N2:N10)</f>
+        <f t="shared" ref="N11" si="17">SUM(N2:N10)</f>
         <v>5.5</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" ref="O11" si="19">SUM(O2:O10)</f>
+        <f t="shared" ref="O11" si="18">SUM(O2:O10)</f>
         <v>4</v>
       </c>
       <c r="P11" s="2">
-        <f t="shared" ref="P11" si="20">SUM(P2:P10)</f>
+        <f t="shared" ref="P11" si="19">SUM(P2:P10)</f>
         <v>11</v>
       </c>
       <c r="Q11" s="2">
-        <f t="shared" ref="Q11" si="21">SUM(Q2:Q10)</f>
+        <f t="shared" ref="Q11" si="20">SUM(Q2:Q10)</f>
         <v>11</v>
       </c>
       <c r="R11" s="2">
-        <f t="shared" ref="R11" si="22">SUM(R2:R10)</f>
+        <f t="shared" ref="R11" si="21">SUM(R2:R10)</f>
         <v>2</v>
       </c>
       <c r="S11" s="2">
-        <f t="shared" ref="S11:Z11" si="23">SUM(S2:S10)</f>
+        <f t="shared" ref="S11:Z11" si="22">SUM(S2:S10)</f>
         <v>5</v>
       </c>
       <c r="T11" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>10.5</v>
       </c>
       <c r="U11" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
       <c r="V11" s="2">
@@ -1146,19 +1165,19 @@
         <v>7</v>
       </c>
       <c r="W11" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>9.75</v>
       </c>
       <c r="X11" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y11" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
       <c r="Z11" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>11</v>
       </c>
       <c r="AA11" s="2">
@@ -1166,11 +1185,11 @@
         <v>2</v>
       </c>
       <c r="AB11" s="2">
-        <f t="shared" ref="AB11:AE11" si="24">SUM(AB2:AB8)</f>
+        <f t="shared" ref="AB11:AE11" si="23">SUM(AB2:AB8)</f>
         <v>4</v>
       </c>
       <c r="AC11" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>12.5</v>
       </c>
       <c r="AD11" s="2">
@@ -1178,7 +1197,7 @@
         <v>5.25</v>
       </c>
       <c r="AE11" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AG11" s="2">
@@ -1186,7 +1205,7 @@
         <v>6</v>
       </c>
       <c r="AH11" s="2">
-        <f t="shared" ref="AH11:AJ11" si="25">SUM(AH2:AH8)</f>
+        <f t="shared" ref="AH11:AJ11" si="24">SUM(AH2:AH8)</f>
         <v>7</v>
       </c>
       <c r="AI11" s="2">
@@ -1194,7 +1213,7 @@
         <v>18.16</v>
       </c>
       <c r="AJ11" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="AK11" s="2">
@@ -1213,31 +1232,31 @@
         <f>SUM(AN2:AN10)</f>
         <v>0</v>
       </c>
-      <c r="AO11">
+      <c r="AO11" s="2">
         <f>SUM(AO2:AO10)+0.2</f>
         <v>3.7</v>
       </c>
-      <c r="AP11">
-        <f t="shared" ref="AP11" si="26">SUM(AP2:AP10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AP11" s="2">
+        <f t="shared" ref="AP11" si="25">SUM(AP2:AP10)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="B14">
         <f>SUM(11:11)</f>
-        <v>308.36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+        <v>311.36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1255,7 +1274,7 @@
       </c>
       <c r="B18">
         <f>B14-B17</f>
-        <v>41.699999999999989</v>
+        <v>44.699999999999989</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
